--- a/Lab 4 - Elektroliza/35 - Pomiary.xlsx
+++ b/Lab 4 - Elektroliza/35 - Pomiary.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Clouds\SourceTree\GitHub\Ewastachow\SprawozdaniaFizyka\Lab 4 - Elektroliza\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="9555" windowHeight="4935"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15765" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Obliczenia" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -122,12 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000000000000000000000000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,40 +267,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -371,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +394,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,18 +603,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="7" max="8" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -634,56 +623,82 @@
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="8">
         <f>30*60</f>
         <v>1800</v>
       </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>0.5</v>
       </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>9.3827999999999995E-2</v>
       </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
-        <v>9.4668000000000002E-2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="8">
+        <v>9.4133999999999995E-2</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <f>B11*B12/100</f>
         <v>3.7499999999999999E-3</v>
       </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <f>B4-B3</f>
-        <v>8.4000000000000741E-4</v>
-      </c>
-      <c r="D5" t="s">
+        <v>3.0600000000000072E-4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>5</v>
       </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -692,29 +707,35 @@
       <c r="B6" s="11">
         <v>0.12669900000000001</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <f>SQRT((B14/B5)^2+(E4/B2)^2+(E5/B1)^2)</f>
-        <v>1.4341875936982018E-2</v>
-      </c>
-      <c r="G6" s="17" t="s">
+        <v>1.8192233988830988E-2</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11">
-        <v>0.12623999999999999</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v>0.12651999999999999</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -725,21 +746,22 @@
       <c r="B8" s="11">
         <v>0.12235</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <f>E6*B19</f>
-        <v>1.338575087451667E-8</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19">
+        <v>6.1853595562025511E-9</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18">
         <f>B19-E8</f>
-        <v>9.1994758245882493E-7</v>
-      </c>
-      <c r="H8" s="20">
+        <v>3.3381464044379825E-7</v>
+      </c>
+      <c r="H8" s="15">
         <f>E8+B19</f>
-        <v>9.4671908420785824E-7</v>
+        <v>3.461853595562034E-7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -747,84 +769,99 @@
         <v>5</v>
       </c>
       <c r="B9" s="11">
-        <v>0.121986</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>0.122213</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f>E6*B20</f>
-        <v>488.49453861070106</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="19">
+        <v>1700.9738779556931</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <f>B20-E9</f>
-        <v>33572.219747103285</v>
-      </c>
-      <c r="H9" s="20">
+        <v>91799.026122044073</v>
+      </c>
+      <c r="H9" s="15">
         <f>E9+B20</f>
-        <v>34549.208824324684</v>
+        <v>95200.973877955461</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="19">
         <f>B6+B8-B7-B9</f>
-        <v>8.2300000000003204E-4</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>3.1600000000002459E-4</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <f>E6*B21</f>
-        <v>8.1084660737107002E-22</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="19">
+        <v>2.8234274677661107E-21</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <f>B21-E10</f>
-        <v>5.5726151128065878E-20</v>
-      </c>
-      <c r="H10" s="20">
+        <v>1.5237617415892456E-19</v>
+      </c>
+      <c r="H10" s="15">
         <f>B21+E10</f>
-        <v>5.7347844342808021E-20</v>
+        <v>1.5802302909445676E-19</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>0.5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="21">
         <f>B14</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="21">
         <f>B5-B14</f>
-        <v>8.3000000000000738E-4</v>
-      </c>
-      <c r="H11" s="22">
+        <v>3.010000000000007E-4</v>
+      </c>
+      <c r="H11" s="23">
         <f>B5+B14</f>
-        <v>8.5000000000000743E-4</v>
+        <v>3.1100000000000073E-4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>0.75</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -833,86 +870,173 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="B14" s="8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>6.3579999999999998E-2</v>
       </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="9">
         <f>6.0245*10^23</f>
         <v>6.024499999999999E+23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f>B5/(B2*B1)</f>
-        <v>9.3333333333334158E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+        <v>3.4000000000000082E-7</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f>B15/(B16*B19)</f>
-        <v>34060.714285713984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+        <v>93499.999999999767</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="25">
         <f>B20/B18</f>
-        <v>5.653699773543695E-20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+        <v>1.5519960162669066E-19</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="15">
         <v>3.2940000000000002E-7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="15">
         <v>96500</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <f>1.602*10^(-19)</f>
         <v>1.602E-19</v>
       </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
